--- a/master_data/remote.xlsx
+++ b/master_data/remote.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/EDA Indeed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/master_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{895C0172-EC6D-4F68-882A-3FF46C371792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DC2B7EB-C963-41FB-A3B3-6A0B928A39A1}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{895C0172-EC6D-4F68-882A-3FF46C371792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDCD3DE1-7F31-4E65-A223-DADA5526AE68}"/>
   <bookViews>
-    <workbookView xWindow="9390" yWindow="1755" windowWidth="17280" windowHeight="8925" xr2:uid="{D328F29F-5308-41C5-B38C-34B338BD0255}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D328F29F-5308-41C5-B38C-34B338BD0255}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -412,12 +412,12 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,39 +425,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
